--- a/biology/Zoologie/John_Edwards_Holbrook/John_Edwards_Holbrook.xlsx
+++ b/biology/Zoologie/John_Edwards_Holbrook/John_Edwards_Holbrook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Edwards Holbrook est un zoologiste américain, né le 30 décembre 1794 à Beaufort en Caroline du Sud et mort le 8 septembre 1871 à North Wrentham, près de Norfolk dans le Massachusetts.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à l'université Brown et à l'université d'État de Pennsylvanie où il obtient son titre de docteur en 1818. Il pratique un temps à Boston avant de partir en 1819 à l'université d'Édimbourg pour compléter sa formation de médecin.
 Il séjourne aussi à Paris où il se lie d'amitié avec les grands naturalistes français comme Georges Cuvier (1769-1832), André Marie Constant Duméril (1774-1860), Gabriel Bibron (1806-1848) et Achille Valenciennes (1794-1865), personnalités qui auront une grande influence sur son œuvre.
